--- a/DOTA2DoubleDown.xlsx
+++ b/DOTA2DoubleDown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\ExcelScanToChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140A870D-AE9C-49BD-A7A3-9B4B84B4F988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520DBE41-C9E1-4717-9A5F-5D64E0D9006D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-7320" windowWidth="21840" windowHeight="37920" xr2:uid="{7FB5AECF-87E2-4915-B6B6-2882BEC383CE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="48">
   <si>
     <t>Jakiro</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Razor</t>
+  </si>
+  <si>
+    <t>Legend 3</t>
   </si>
 </sst>
 </file>
@@ -549,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D1BFDF-9BB5-43D8-9195-F6A341B6F0E3}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,7 +1560,7 @@
         <v>3620</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>3572</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -1591,7 +1594,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>46</v>
       </c>
@@ -1608,7 +1611,7 @@
         <v>3476</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -1625,7 +1628,7 @@
         <v>3428</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -1640,6 +1643,26 @@
       </c>
       <c r="E69">
         <v>3380</v>
+      </c>
+      <c r="G69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45424</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70">
+        <v>3332</v>
       </c>
     </row>
   </sheetData>
